--- a/templates/(新報機單併X3)轉出關貿格式範例.xlsx
+++ b/templates/(新報機單併X3)轉出關貿格式範例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\群翔\原始碼\20191209_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B17D64-4F9D-4563-ADC9-076E3312CDF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B382105A-C644-4DF2-A4FB-9D828E3889B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="3396" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NGIUOW" sheetId="5" state="veryHidden" r:id="rId1"/>
@@ -196,10 +196,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.IL_CTN_NOREPEAT}</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data.IL_WEIGHT_NEW_NOREPEAT}</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -212,10 +208,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.CO_NAME}</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data.IL_GETADDRESS}</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -225,6 +217,14 @@
   </si>
   <si>
     <t>${table:data.IL_FINALCOST_NOREPEAT}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_NEWSENDNAME}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_BAGNO_NOREPEAT}</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -262,28 +262,33 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -295,6 +300,7 @@
       <sz val="18"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -307,65 +313,77 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="60"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="62"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="56"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -383,6 +401,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1800,34 +1819,34 @@
         <v>34</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" s="38" t="s">
         <v>36</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N5" s="31" t="s">
         <v>37</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="41" t="s">
         <v>42</v>
@@ -1836,7 +1855,7 @@
         <v>38</v>
       </c>
       <c r="S5" s="43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="T5" s="44" t="s">
         <v>39</v>

--- a/templates/(新報機單併X3)轉出關貿格式範例.xlsx
+++ b/templates/(新報機單併X3)轉出關貿格式範例.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Case\群翔\原始碼\20191209_Module\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B382105A-C644-4DF2-A4FB-9D828E3889B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13642B48-D715-4825-96DC-91BC44C89835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>提單號</t>
-  </si>
-  <si>
-    <t>件數 CTN</t>
   </si>
   <si>
     <t>收件者統編</t>
@@ -225,6 +222,10 @@
   </si>
   <si>
     <t>${table:data.IL_BAGNO_NOREPEAT}</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋數 CTN</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1629,7 +1630,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -1663,14 +1664,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="72"/>
       <c r="D2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="77"/>
       <c r="G2" s="15"/>
@@ -1702,14 +1703,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="73"/>
       <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="76"/>
       <c r="G3" s="4"/>
@@ -1745,13 +1746,13 @@
         <v>3</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>4</v>
@@ -1766,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>8</v>
@@ -1778,93 +1779,93 @@
         <v>10</v>
       </c>
       <c r="P4" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="25" t="s">
+      <c r="S4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="26" t="s">
-        <v>18</v>
+      <c r="T4" s="28" t="s">
+        <v>20</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="U4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="28" t="s">
+      <c r="V4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="27" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>31</v>
+      <c r="J5" s="37" t="s">
+        <v>45</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="36" t="s">
+      <c r="K5" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="37" t="s">
+      <c r="L5" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="M5" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="O5" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="40" t="s">
-        <v>51</v>
+      <c r="P5" s="31" t="s">
+        <v>48</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="Q5" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="31" t="s">
+      <c r="S5" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="Q5" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="71" t="s">
+      <c r="T5" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" s="44" t="s">
+      <c r="U5" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="U5" s="44" t="s">
+      <c r="V5" s="45" t="s">
         <v>40</v>
-      </c>
-      <c r="V5" s="45" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:27">
